--- a/www/IndicatorsPerCountry/Kenya_HistoricalGenderEqualityIndex_TerritorialRef_1963_2012_CCode_404.xlsx
+++ b/www/IndicatorsPerCountry/Kenya_HistoricalGenderEqualityIndex_TerritorialRef_1963_2012_CCode_404.xlsx
@@ -84,13 +84,13 @@
     <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Kenya_HistoricalGenderEqualityIndex_TerritorialRef_1963_2012_CCode_404.xlsx
+++ b/www/IndicatorsPerCountry/Kenya_HistoricalGenderEqualityIndex_TerritorialRef_1963_2012_CCode_404.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,25 +36,166 @@
     <t>Historical Gender Equality Index</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>58.337616656494</t>
+  </si>
+  <si>
+    <t>59.8020731992684</t>
+  </si>
+  <si>
+    <t>59.7931203068408</t>
+  </si>
+  <si>
+    <t>60.7068799963169</t>
+  </si>
+  <si>
+    <t>61.1706847624426</t>
+  </si>
+  <si>
+    <t>57.7230423970673</t>
+  </si>
+  <si>
+    <t>59.6225548866545</t>
+  </si>
+  <si>
+    <t>60.5908203647597</t>
+  </si>
+  <si>
+    <t>59.3392360562427</t>
+  </si>
+  <si>
+    <t>59.9470353293592</t>
+  </si>
+  <si>
+    <t>56.9969886684851</t>
+  </si>
+  <si>
+    <t>60.6127075897675</t>
+  </si>
+  <si>
+    <t>59.4789541171836</t>
+  </si>
+  <si>
+    <t>58.9865926112627</t>
+  </si>
+  <si>
+    <t>61.7170264797121</t>
+  </si>
+  <si>
+    <t>57.4533690447227</t>
+  </si>
+  <si>
+    <t>58.42642778701</t>
+  </si>
+  <si>
+    <t>58.308518203806</t>
+  </si>
+  <si>
+    <t>58.3757491925908</t>
+  </si>
+  <si>
+    <t>57.148667752659</t>
+  </si>
+  <si>
+    <t>58.7184948650439</t>
+  </si>
+  <si>
+    <t>60.1832179418252</t>
+  </si>
+  <si>
+    <t>57.3143708170811</t>
+  </si>
+  <si>
+    <t>60.8037889303445</t>
+  </si>
+  <si>
+    <t>62.0714610907295</t>
+  </si>
+  <si>
+    <t>59.1444054107502</t>
+  </si>
+  <si>
+    <t>58.7335804567874</t>
+  </si>
+  <si>
+    <t>60.5578439662464</t>
+  </si>
+  <si>
+    <t>61.5737152314073</t>
+  </si>
+  <si>
+    <t>60.7015897017626</t>
+  </si>
+  <si>
+    <t>61.427024692804</t>
+  </si>
+  <si>
+    <t>60.5190980300702</t>
+  </si>
+  <si>
+    <t>60.7711140979584</t>
+  </si>
+  <si>
+    <t>58.7127513804857</t>
+  </si>
+  <si>
+    <t>60.4576735411756</t>
+  </si>
+  <si>
+    <t>62.3357596926875</t>
+  </si>
+  <si>
+    <t>60.0995453214294</t>
+  </si>
+  <si>
+    <t>61.6737902447174</t>
+  </si>
+  <si>
+    <t>61.032474501975</t>
+  </si>
+  <si>
+    <t>65.7797571423626</t>
+  </si>
+  <si>
+    <t>66.2656786762754</t>
+  </si>
+  <si>
+    <t>63.1340175795683</t>
+  </si>
+  <si>
+    <t>64.0394003431104</t>
+  </si>
+  <si>
+    <t>62.0437687905792</t>
+  </si>
+  <si>
+    <t>62.9122995212335</t>
+  </si>
+  <si>
+    <t>64.6048415531091</t>
+  </si>
+  <si>
+    <t>61.0317050095811</t>
+  </si>
+  <si>
+    <t>63.347165233731</t>
+  </si>
+  <si>
+    <t>65.0303494849141</t>
+  </si>
+  <si>
+    <t>62.158042334143</t>
+  </si>
+  <si>
+    <t>64.2012709238978</t>
+  </si>
+  <si>
+    <t>63.3036754591565</t>
+  </si>
+  <si>
+    <t>68.1713461928154</t>
+  </si>
+  <si>
+    <t>66.4282881860486</t>
   </si>
   <si>
     <t>Description</t>
@@ -81,7 +222,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Kenya_HistoricalGenderEqualityIndex_TerritorialRef_1963_2012_CCode_404.xlsx</t>
   </si>
   <si>
-    <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
+    <t>Carmichael, Sarah, Selin Dilli, and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.xml</t>
@@ -206,7 +347,7 @@
         <v>1952.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -223,7 +364,7 @@
         <v>1953.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -240,7 +381,7 @@
         <v>1954.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -257,7 +398,7 @@
         <v>1955.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -274,7 +415,7 @@
         <v>1956.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +432,7 @@
         <v>1957.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -308,7 +449,7 @@
         <v>1958.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -325,7 +466,7 @@
         <v>1959.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -342,7 +483,7 @@
         <v>1960.0</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -359,7 +500,7 @@
         <v>1961.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -376,7 +517,7 @@
         <v>1962.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -393,7 +534,7 @@
         <v>1963.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -410,7 +551,7 @@
         <v>1964.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -427,7 +568,7 @@
         <v>1965.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -444,7 +585,7 @@
         <v>1966.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -461,7 +602,7 @@
         <v>1967.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -478,7 +619,7 @@
         <v>1968.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -495,7 +636,7 @@
         <v>1969.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -512,7 +653,7 @@
         <v>1970.0</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -529,7 +670,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -546,7 +687,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +704,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -580,7 +721,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -597,7 +738,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -614,7 +755,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -631,7 +772,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -648,7 +789,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -665,7 +806,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -682,7 +823,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -699,7 +840,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -716,7 +857,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -733,7 +874,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -750,7 +891,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -767,7 +908,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -784,7 +925,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -801,7 +942,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +959,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -835,7 +976,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +993,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -869,7 +1010,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -886,7 +1027,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -903,7 +1044,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -920,7 +1061,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -937,7 +1078,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +1095,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -971,7 +1112,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -988,7 +1129,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1005,7 +1146,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1022,7 +1163,58 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1040,50 +1232,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
